--- a/mbs-perturbation/greedy/svm/greedy-svm-sigmoid-results.xlsx
+++ b/mbs-perturbation/greedy/svm/greedy-svm-sigmoid-results.xlsx
@@ -476,7 +476,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1861471861471862</v>
+        <v>0.05772005772005772</v>
       </c>
     </row>
     <row r="3">
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>0.001443001443001431</v>
       </c>
     </row>
     <row r="4">
@@ -514,7 +514,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>0.6739130434782608</v>
       </c>
     </row>
     <row r="5">
@@ -533,7 +533,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>0.2597402597402597</v>
       </c>
     </row>
     <row r="6">
@@ -552,7 +552,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8484848484848485</v>
+        <v>0.7575757575757576</v>
       </c>
     </row>
     <row r="7">
@@ -571,7 +571,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.206926406926407</v>
+        <v>0.3500784239914674</v>
       </c>
     </row>
   </sheetData>

--- a/mbs-perturbation/greedy/svm/greedy-svm-sigmoid-results.xlsx
+++ b/mbs-perturbation/greedy/svm/greedy-svm-sigmoid-results.xlsx
@@ -476,7 +476,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.05772005772005772</v>
+        <v>0.1096153846153847</v>
       </c>
     </row>
     <row r="3">
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.001443001443001431</v>
+        <v>0.2721153846153846</v>
       </c>
     </row>
     <row r="4">
@@ -514,7 +514,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6739130434782608</v>
+        <v>0.6923076923076923</v>
       </c>
     </row>
     <row r="5">
@@ -533,7 +533,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0.2597402597402597</v>
+        <v>0.9254807692307692</v>
       </c>
     </row>
     <row r="6">
@@ -552,7 +552,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7575757575757576</v>
+        <v>0.1322115384615384</v>
       </c>
     </row>
     <row r="7">
@@ -571,7 +571,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.3500784239914674</v>
+        <v>0.4263461538461538</v>
       </c>
     </row>
   </sheetData>
